--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_5/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_5/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.19</v>
+        <v>0.491</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.023</v>
+        <v>17.207</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.325</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.588</v>
+        <v>10.192</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.372</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.101</v>
+        <v>8.063000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10.54595087781112</v>
+        <v>8.249092527021372</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>22.90273648220454</v>
+        <v>15.51720790883486</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.36420478743389</v>
+        <v>18.99039922037461</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.831131114319046</v>
+        <v>-7.226905417664614</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.97577848394636</v>
+        <v>19.40967552375208</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24.3470428473558</v>
+        <v>21.93221878266776</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.382359757804382</v>
+        <v>-2.389957278457633</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>24.72293435412501</v>
+        <v>35.51631335610871</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.63748564073</v>
+        <v>35.35808570927999</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25.36154644485701</v>
+        <v>34.56751657399984</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31.50283208896407</v>
+        <v>39.80408804242786</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>33.53325327468897</v>
+        <v>42.55958332864127</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>16.08327695964796</v>
+        <v>12.28553154522835</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>27.27359385385838</v>
+        <v>35.51393947536629</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>31.70370183212718</v>
+        <v>41.02586920847331</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>15.01961901539864</v>
+        <v>19.2001528715365</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.94688499176561</v>
+        <v>37.65327828584888</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.31929882776961</v>
+        <v>42.81721007461259</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8.129142416449239</v>
+        <v>5.520261465245465</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>23.6639226742023</v>
+        <v>31.79395250898396</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.06861007230519</v>
+        <v>40.89351251337364</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>12.57237009600991</v>
+        <v>8.555956765769491</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.42068232696979</v>
+        <v>50.69441177395608</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>34.28732740017565</v>
+        <v>60.94141282167134</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30.15606776669609</v>
+        <v>55.03325607020439</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>36.55911183251183</v>
+        <v>66.38630475566016</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>38.63679469778008</v>
+        <v>72.26639515610684</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>20.74018495378663</v>
+        <v>22.10809398778526</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>32.41831461440627</v>
+        <v>64.28736986276819</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>36.79988936599266</v>
+        <v>70.96252547686662</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>21.95531654206775</v>
+        <v>25.99735866588228</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.74597978697327</v>
+        <v>46.00698622325878</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>40.39940564976904</v>
+        <v>52.25279239604065</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>15.69985723136681</v>
+        <v>9.614887527745605</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>31.26658034460067</v>
+        <v>42.59190288685328</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>36.82073144516986</v>
+        <v>51.811147924976</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>20.27507085140924</v>
+        <v>14.29385403936849</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>37.00802699909497</v>
+        <v>65.78910328292251</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>42.18290970704374</v>
+        <v>76.46911150807908</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>38.3223415608805</v>
+        <v>80.83314449488451</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>44.68460308676799</v>
+        <v>90.17312502829289</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>46.76000299196433</v>
+        <v>97.46968758414432</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.8806866316416</v>
+        <v>32.54785406624508</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>40.41033821020984</v>
+        <v>81.9919908074916</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>44.92769715669122</v>
+        <v>89.57172968975352</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>12.70736987888711</v>
+        <v>11.13468840260544</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.38189462175343</v>
+        <v>36.81111379601124</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>30.82285948364185</v>
+        <v>42.1315443285619</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.164434974343346</v>
+        <v>3.683036521086688</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>21.61016081703382</v>
+        <v>44.54469005802535</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>26.94211794619537</v>
+        <v>49.90358510672165</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>10.77244477534009</v>
+        <v>5.222508510530371</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>27.41696250229536</v>
+        <v>68.6262851852231</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>32.3096593629252</v>
+        <v>71.28340802270547</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>27.89859985069262</v>
+        <v>60.93347702522699</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>34.10074099673186</v>
+        <v>68.20009160834663</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>36.05288589924463</v>
+        <v>71.66162983378346</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>18.38622067628405</v>
+        <v>16.60227484413938</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.81301951503045</v>
+        <v>62.06069375400888</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>34.1956609639142</v>
+        <v>69.67254735003975</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>16.72276370827389</v>
+        <v>10.2284001672419</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.95643819514592</v>
+        <v>41.76195420300586</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.30001708207233</v>
+        <v>46.65186698198862</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>9.988628275576485</v>
+        <v>2.671175001631308</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>25.81009679462892</v>
+        <v>38.49322095397871</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>31.17114863637029</v>
+        <v>48.81300521804441</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>14.48951836109406</v>
+        <v>2.925516851200467</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>31.63263374686102</v>
+        <v>64.04529791106815</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>36.46906223690639</v>
+        <v>75.13142007747591</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>32.20334512746226</v>
+        <v>61.45920107566501</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>38.66348542396024</v>
+        <v>73.95147523496156</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>40.66104131624692</v>
+        <v>78.57464105186263</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>22.56408674342707</v>
+        <v>14.22956371364871</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>34.46401180412863</v>
+        <v>72.51202522784642</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>38.79962257425067</v>
+        <v>78.21333131690865</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>23.73369083690405</v>
+        <v>14.44335683982656</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>36.81558761439278</v>
+        <v>48.21330127336425</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>42.45149465111431</v>
+        <v>54.94343195348104</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>17.63665241860982</v>
+        <v>4.597817406838981</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>33.48096552655138</v>
+        <v>47.77086399545364</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>38.99559959431294</v>
+        <v>57.68196264113804</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>22.28544470798884</v>
+        <v>5.559909911481878</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>39.29725329412138</v>
+        <v>77.10878288171337</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>44.45122938084834</v>
+        <v>89.12329992822511</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>40.46573616527702</v>
+        <v>84.52657746016611</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>46.88612751124326</v>
+        <v>96.22709679820149</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>48.88152984411764</v>
+        <v>102.642040637944</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>30.79617376121787</v>
+        <v>21.62876553135119</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>42.54849130211384</v>
+        <v>88.85405880192634</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>47.01835647232483</v>
+        <v>96.15340853733643</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>11.88348244796986</v>
+        <v>23.52312551588743</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.52073783352607</v>
+        <v>39.34823422149206</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.96707237573342</v>
+        <v>41.3468273141368</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>5.253867720021198</v>
+        <v>5.372020581256674</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>20.67349246491003</v>
+        <v>46.16817285746377</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>26.00268212079139</v>
+        <v>46.77274333524282</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>9.88110688810135</v>
+        <v>8.852595345694095</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>26.50211361986081</v>
+        <v>69.30379144795874</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>31.39972141140134</v>
+        <v>65.83671530372148</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>26.98414129456036</v>
+        <v>62.67100263323887</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>33.18604911909438</v>
+        <v>69.97585517517952</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>35.13539155743877</v>
+        <v>70.35516485910527</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>17.51548197225692</v>
+        <v>29.09653536106863</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>28.9005515962426</v>
+        <v>62.27747888779619</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>33.29445899665542</v>
+        <v>65.77201084805002</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>16.17879502706414</v>
+        <v>24.82246653749619</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.37922814397824</v>
+        <v>48.56948938858081</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>34.72785757146747</v>
+        <v>50.01288623211069</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>9.364826054751889</v>
+        <v>6.568796733406696</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>25.16550781873108</v>
+        <v>44.94150860939696</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>30.52335590392867</v>
+        <v>50.62774078757316</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>13.88718128817744</v>
+        <v>8.843182932243632</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>31.01065653928876</v>
+        <v>69.77304839348606</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>35.85237028554371</v>
+        <v>74.63662374727626</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>31.58244553637613</v>
+        <v>67.40490085338176</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>38.04295649528128</v>
+        <v>78.52129546242379</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>40.03774876503222</v>
+        <v>80.69475080938066</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>21.98182679671626</v>
+        <v>28.85777882676068</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>33.8433733505497</v>
+        <v>76.31580304982502</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>38.19193594866052</v>
+        <v>78.47033353312612</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>23.16345598265646</v>
+        <v>27.34281203633004</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>36.21418290834043</v>
+        <v>53.58869407191149</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>41.85346151704552</v>
+        <v>56.04499097307054</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>16.98820627409193</v>
+        <v>7.305985276333626</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>32.81243672352235</v>
+        <v>53.82759390002697</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>38.32300195170755</v>
+        <v>58.06315425018921</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>21.65656527093498</v>
+        <v>10.53344886395821</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>38.65057568996484</v>
+        <v>82.1950199959763</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>43.807178085864</v>
+        <v>86.98261132395412</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>39.81973560943881</v>
+        <v>89.80838708404401</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>46.24126953976683</v>
+        <v>98.95439274520881</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>48.23366037926773</v>
+        <v>103.0115840767505</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>30.18930876523323</v>
+        <v>35.7384371454409</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>41.90426679061164</v>
+        <v>92.42955126922034</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>46.38482263840967</v>
+        <v>95.57085285317849</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>9.56448929402486</v>
+        <v>15.25494094179278</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>21.81969194489311</v>
+        <v>21.20407446050224</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>27.2641060865752</v>
+        <v>23.5135527725845</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2.858456480465268</v>
+        <v>0.2033901114592815</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>17.87361341016709</v>
+        <v>26.40524174427587</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>23.23412432563332</v>
+        <v>28.21502688039079</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>7.38304383796196</v>
+        <v>5.305649573209944</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>23.60850814246763</v>
+        <v>39.55067447136118</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.50370460689903</v>
+        <v>39.63322547374834</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>24.28299239695973</v>
+        <v>38.42809960716566</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>30.3882174197678</v>
+        <v>41.63030837159125</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>32.40660820362002</v>
+        <v>45.94483058594777</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>15.09350337407502</v>
+        <v>27.65154780099875</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>26.20651955956628</v>
+        <v>51.49576902135887</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>30.62024502843186</v>
+        <v>53.79216166107857</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>13.94002711084437</v>
+        <v>21.61992587311722</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>26.76370876596064</v>
+        <v>38.27020034646195</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>32.1208467742301</v>
+        <v>42.20473923009978</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>7.061473673503873</v>
+        <v>8.805838454933319</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>22.46556731957578</v>
+        <v>34.46470191336481</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>27.86013716556189</v>
+        <v>43.28590070766747</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>11.47671142843056</v>
+        <v>11.46165907989508</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>28.2082503856908</v>
+        <v>49.08897525535143</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>33.05718269434696</v>
+        <v>59.40609720409869</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.97725692356115</v>
+        <v>50.56474232814004</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>35.34256831284963</v>
+        <v>60.66030083901786</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>37.40924901555094</v>
+        <v>68.28695586641352</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>19.64725630320973</v>
+        <v>27.89630394298608</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>31.24575206449502</v>
+        <v>70.25864638802223</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>35.6123263970273</v>
+        <v>73.22307052313427</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>20.97887788169758</v>
+        <v>29.64745988013614</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>33.66536589610189</v>
+        <v>47.66404462479748</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>39.30199814313771</v>
+        <v>52.56014926944003</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>14.72124121675568</v>
+        <v>13.01407901192884</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>30.1572411692551</v>
+        <v>45.10405226230468</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>35.70126033746861</v>
+        <v>53.75083382497739</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>19.27487548739914</v>
+        <v>17.6647573265467</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>35.891553990654</v>
+        <v>64.78001977192567</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>41.04737609577462</v>
+        <v>75.70156025439483</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>37.23799886896654</v>
+        <v>75.45127601254644</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>43.5633012109008</v>
+        <v>83.96475726275391</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>45.62521547231184</v>
+        <v>93.07803321291165</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>27.88118787426154</v>
+        <v>38.89706685468441</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>39.33111574813634</v>
+        <v>87.56247252255916</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>43.83371247333548</v>
+        <v>91.33068796722306</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>14.12164063969644</v>
+        <v>26.49248013567977</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>26.5244152462332</v>
+        <v>41.57108304797124</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>31.95903589165508</v>
+        <v>40.49971411290487</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>7.40620336653221</v>
+        <v>5.691314379600396</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>22.59519045031776</v>
+        <v>46.92020046490542</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>27.94208194335552</v>
+        <v>46.45070263950664</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>11.99609592585786</v>
+        <v>11.85460625156538</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>28.37902098744594</v>
+        <v>69.67063513227909</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>33.27454679624111</v>
+        <v>64.18412563608196</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.97941237390775</v>
+        <v>59.24841269815481</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>35.12223132174476</v>
+        <v>65.29223489887643</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>37.1316669238997</v>
+        <v>64.89535044710458</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>19.68370132726406</v>
+        <v>34.36950414181085</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>30.8640807443615</v>
+        <v>59.90613906381448</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>35.28707922790285</v>
+        <v>60.57350205368358</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>18.69745573108293</v>
+        <v>33.17995468303492</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>31.66145965705271</v>
+        <v>56.4069735580819</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>37.0030843677495</v>
+        <v>55.74318371002776</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>11.80839042615354</v>
+        <v>13.00143684681158</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>27.37932962407597</v>
+        <v>51.22118944480529</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>32.75577479487175</v>
+        <v>56.59174844755726</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>16.29326415709899</v>
+        <v>17.02995615624404</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>33.17513614920185</v>
+        <v>75.2748957004908</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>38.01827443293333</v>
+        <v>78.7472101488177</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>33.87713146649552</v>
+        <v>73.50484577948542</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>40.27863224479444</v>
+        <v>84.54042844156653</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>42.33468025857769</v>
+        <v>86.61521419455077</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>24.44719677044773</v>
+        <v>42.4589378103329</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>36.10876773094145</v>
+        <v>84.59918298780578</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>25.48187414400904</v>
+        <v>33.79813919785623</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>38.30651906092591</v>
+        <v>57.9880472842349</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>43.9327537537098</v>
+        <v>59.26612214275205</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>19.21911281609655</v>
+        <v>10.64657487345469</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>34.81758728020219</v>
+        <v>54.7763739612336</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>40.34724182616092</v>
+        <v>60.25351795697223</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>23.83399508116252</v>
+        <v>15.45719073671112</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>40.59713518701413</v>
+        <v>82.42596594493308</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>45.75312969754793</v>
+        <v>87.70114885021029</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>41.87684259374164</v>
+        <v>90.94635139335749</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>48.24003819041246</v>
+        <v>100.0234946486188</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>50.29371544616252</v>
+        <v>104.2301747565304</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>32.42250655829051</v>
+        <v>44.62720683907339</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>43.93602236012367</v>
+        <v>93.98112600809002</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>48.44792115870199</v>
+        <v>96.49405461263838</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>10.7783665578788</v>
+        <v>16.01848398595207</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>23.21614924440143</v>
+        <v>34.65775980534731</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>28.5598274183403</v>
+        <v>38.16307762668016</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>4.216500163836752</v>
+        <v>1.564465993392769</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>19.43909309684647</v>
+        <v>45.13063596217334</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>24.65682909115278</v>
+        <v>48.68915414317961</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>8.741915423260206</v>
+        <v>6.17502624023113</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>25.11477358512964</v>
+        <v>71.00247700736203</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>29.91528708193395</v>
+        <v>68.05239862179882</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>25.5974871683551</v>
+        <v>54.34195485938285</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>31.68496079298016</v>
+        <v>61.23065321685353</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>33.61293361676253</v>
+        <v>61.89840352600255</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>16.27566061630041</v>
+        <v>16.52378625529546</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>27.45120629168484</v>
+        <v>51.01888018819911</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>31.77352507723575</v>
+        <v>53.58777772962735</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>15.44424975267582</v>
+        <v>24.99940720212346</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>28.43950415640782</v>
+        <v>52.50722184013928</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>33.68379620918144</v>
+        <v>54.75719915464491</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>8.702784449834363</v>
+        <v>6.783288720970955</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>24.30400313031033</v>
+        <v>48.45266375089481</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.54787431898032</v>
+        <v>56.3164240987724</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>13.13055484386586</v>
+        <v>10.12482524041165</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>30.00103350461897</v>
+        <v>76.32418085642591</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>34.74351393536838</v>
+        <v>81.21957473629196</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>30.58060371760044</v>
+        <v>69.1892421303222</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>36.92252829203244</v>
+        <v>80.98745605032978</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>38.89404993547052</v>
+        <v>84.45522327259458</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>21.12660977084899</v>
+        <v>27.83820011243621</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>32.77823574752477</v>
+        <v>80.91261972534279</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>37.05241431151974</v>
+        <v>82.72630162552305</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>22.31473163039056</v>
+        <v>25.89749894689679</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>35.1633656881701</v>
+        <v>54.51495293642152</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>40.69596386071072</v>
+        <v>58.36371406641915</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>16.19839874125557</v>
+        <v>4.129078155330671</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>31.82106885270669</v>
+        <v>51.22572318859416</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>37.21742354511638</v>
+        <v>58.0891680668126</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>20.77123056700238</v>
+        <v>8.27092773600064</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>37.51431895368678</v>
+        <v>82.59601423805093</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>42.57016605694096</v>
+        <v>88.48032467626093</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>38.67781240406888</v>
+        <v>86.91744943717079</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>44.98251603759009</v>
+        <v>97.43812611358625</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>46.95322488832224</v>
+        <v>100.9064408761204</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.19818793592659</v>
+        <v>28.80383602242345</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>40.70209167381032</v>
+        <v>90.09840810741518</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>45.1117937129534</v>
+        <v>92.84232337587694</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>5.977739639243136</v>
+        <v>3.613402580331648</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>18.28001928238764</v>
+        <v>8.982553724238908</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>23.62638129634906</v>
+        <v>11.26269689367332</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-0.6006944283520177</v>
+        <v>-7.751848829404953</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>14.4716968385173</v>
+        <v>17.32049673609917</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>19.6904285138327</v>
+        <v>17.30657858997845</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>3.861152271243661</v>
+        <v>-4.340119065673623</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>20.09619414893984</v>
+        <v>29.80495490613218</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>24.89006814216351</v>
+        <v>26.8875216169463</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>20.64904732135987</v>
+        <v>31.4757553087265</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>26.72953394365715</v>
+        <v>36.77114377572697</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.66836937649009</v>
+        <v>36.27616006993323</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>11.39773963559458</v>
+        <v>7.566894973926406</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>22.52842432044988</v>
+        <v>27.16675282149306</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>26.84236606550534</v>
+        <v>31.45282476099292</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>10.56099677012872</v>
+        <v>12.9236181017937</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>23.43479652277813</v>
+        <v>30.82163031651823</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>28.68725442153091</v>
+        <v>34.77561646915227</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>3.801795744357822</v>
+        <v>4.019311322649497</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>19.26749788531963</v>
+        <v>31.22335434947693</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>24.5175888646299</v>
+        <v>38.41562191716257</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>8.164621600009244</v>
+        <v>5.410664967651012</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>24.91189619551866</v>
+        <v>46.83515588347852</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.65308557520863</v>
+        <v>53.84130301229912</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>25.55406856491142</v>
+        <v>50.32983219600906</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>31.89334535520076</v>
+        <v>60.01517916353065</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>33.87623656618712</v>
+        <v>61.94942932147795</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>16.16419829820581</v>
+        <v>16.91783705047625</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>27.77987400406848</v>
+        <v>56.1971067359931</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>32.04884412099167</v>
+        <v>61.05324515391517</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>17.59520608777659</v>
+        <v>20.02036347627675</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>30.32461937276963</v>
+        <v>40.40315848543115</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>35.86390731709865</v>
+        <v>45.27676092044253</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>11.46594911466831</v>
+        <v>7.246600931729017</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>26.95806969938828</v>
+        <v>43.1431280972417</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>32.35894234847677</v>
+        <v>48.76001170576889</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>15.97605899112885</v>
+        <v>11.03218061770279</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>32.59866763331675</v>
+        <v>63.3518454009582</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>37.65092336811921</v>
+        <v>69.97781388801799</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>33.8269347698091</v>
+        <v>78.05478379571998</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>40.12624065181195</v>
+        <v>86.5206469115691</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>42.10901913434029</v>
+        <v>89.31145166132076</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>24.41131822608068</v>
+        <v>30.3751606662925</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>35.878854909408</v>
+        <v>77.67618207668595</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>40.28054114858263</v>
+        <v>83.65492062467386</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>7.73074614741045</v>
+        <v>2.161065581732554</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>20.17298063945611</v>
+        <v>3.074548307178059</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>25.68176321866353</v>
+        <v>7.808997306440073</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>0.9997666488423462</v>
+        <v>-5.895912056434572</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>16.22747982627495</v>
+        <v>11.88472738163587</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>21.63848869022524</v>
+        <v>15.46912429172566</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>5.522248352287786</v>
+        <v>-6.218313689282969</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>21.9650076390472</v>
+        <v>19.34964936985811</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>26.92747260653853</v>
+        <v>20.71129824069423</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>22.60161951357379</v>
+        <v>19.58758987882429</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>28.80497439854</v>
+        <v>23.86935922213892</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>30.83287243720678</v>
+        <v>30.79196721972239</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>13.26056746741996</v>
+        <v>5.032353746283245</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>24.5174594603031</v>
+        <v>18.26895239580569</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>28.98498447317315</v>
+        <v>18.84318439752472</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>12.2568912544396</v>
+        <v>-0.09851477636432904</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>25.27057176121725</v>
+        <v>8.780321758594294</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>30.68500993993902</v>
+        <v>15.02400046965509</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>5.35040726523048</v>
+        <v>-5.901671462753871</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>20.96834006193674</v>
+        <v>9.155192528044108</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>26.40917166259685</v>
+        <v>18.69214070035373</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>9.766417909164504</v>
+        <v>-8.418145690330295</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>26.71847426512077</v>
+        <v>17.83126931589167</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>31.62781439982675</v>
+        <v>29.09609587432969</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>27.45475479937184</v>
+        <v>22.97608788735759</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>33.92035489983049</v>
+        <v>33.57764348433979</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>35.99490024136615</v>
+        <v>44.61322215194873</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>17.97591016486289</v>
+        <v>1.73346340720077</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.71961959234496</v>
+        <v>30.42706331338534</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>34.13753206841665</v>
+        <v>32.12640575125333</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>19.31276438344038</v>
+        <v>6.307240141926155</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>32.18573944210679</v>
+        <v>16.73798267701583</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>37.89088419463612</v>
+        <v>26.10646313598194</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>13.03993570694387</v>
+        <v>-1.822495107422743</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>28.68742016235172</v>
+        <v>20.14059342147233</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>34.28582622258855</v>
+        <v>31.44997335999305</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>17.59540919425169</v>
+        <v>-2.727369337032872</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>34.42800057141815</v>
+        <v>32.6662605660391</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>39.65586831975639</v>
+        <v>46.96118899741951</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>35.75033698994096</v>
+        <v>47.63339948127692</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>42.17765342907748</v>
+        <v>57.42871333739431</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>44.25137862021997</v>
+        <v>71.37805063951144</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>26.24532538193526</v>
+        <v>10.61437846812329</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>37.84170672260029</v>
+        <v>47.45693610192673</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>42.400962987916</v>
+        <v>51.33993648429792</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>13.48637916767689</v>
+        <v>17.34940639821705</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>26.05120943872057</v>
+        <v>30.127597778679</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>31.46429939006581</v>
+        <v>39.23873823099247</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>7.037036943694233</v>
+        <v>6.683413624854648</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>22.43076915876716</v>
+        <v>50.02315838348956</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>27.70831242118078</v>
+        <v>53.38602094829211</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>11.61997550874949</v>
+        <v>11.48310283746489</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>28.161008961964</v>
+        <v>73.10392849125104</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>33.02250248432742</v>
+        <v>71.89286061557623</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.6875152794782</v>
+        <v>63.5402386261491</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>34.85150701739915</v>
+        <v>70.15266419753728</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>36.79962966084715</v>
+        <v>69.05015897517963</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>19.27656726489614</v>
+        <v>36.19739562290202</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>30.58152431581628</v>
+        <v>63.41552106111747</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>34.95994944568621</v>
+        <v>73.11048483043773</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>17.73991204046903</v>
+        <v>13.76672206228467</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>30.8680688802367</v>
+        <v>34.75955890106299</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>36.17752290333297</v>
+        <v>40.52567602944653</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>11.10069857596643</v>
+        <v>-1.757981281421412</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>26.87468941866533</v>
+        <v>37.20536314035662</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>32.17626489309269</v>
+        <v>43.75920987931538</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>15.58079389814565</v>
+        <v>0.7477819116502182</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>32.62340440394726</v>
+        <v>61.5685093784774</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>37.4234852879543</v>
+        <v>66.39363195880073</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>33.24211714089516</v>
+        <v>56.58655629576533</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>39.6640556430533</v>
+        <v>66.19534052631532</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>41.65574095292243</v>
+        <v>67.56707862896967</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>23.69959461870351</v>
+        <v>24.3193143254371</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>35.48322365165339</v>
+        <v>67.07758192901026</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>39.81002328836108</v>
+        <v>70.9418285935685</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>24.60187358877087</v>
+        <v>19.4683468224223</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>37.57819333490416</v>
+        <v>41.47533683594337</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>43.18308399225295</v>
+        <v>50.02771938461341</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>18.59997751940916</v>
+        <v>3.420253606128096</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>34.39300209779404</v>
+        <v>48.73018359877419</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>39.85115752826356</v>
+        <v>55.39025153479302</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>23.22199327402719</v>
+        <v>6.632096235839196</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>40.13290309545275</v>
+        <v>76.724709812006</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>45.25285792507253</v>
+        <v>83.30679718283979</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>41.34430346033476</v>
+        <v>82.21508340922854</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>47.7268252801234</v>
+        <v>91.50424712942377</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>49.71790902398182</v>
+        <v>92.90297016125707</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>31.77474134318168</v>
+        <v>33.95618480213112</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>43.40932470263323</v>
+        <v>85.41035018459569</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>47.87271391609173</v>
+        <v>92.16355327203682</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>3.229875135047429</v>
+        <v>3.881699241609407</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>15.46243321186009</v>
+        <v>8.619206344705173</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>20.83420505945123</v>
+        <v>13.44342081217131</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-3.332623065599137</v>
+        <v>-4.129537428477352</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>11.59960667939886</v>
+        <v>12.95379779910702</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>16.87388681411544</v>
+        <v>16.51278652253314</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>1.082977582236428</v>
+        <v>-2.258464318913429</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>17.20922452745387</v>
+        <v>24.17556314170237</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>22.039626314538</v>
+        <v>24.37212669657877</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>17.71480537671733</v>
+        <v>25.34918892816945</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>23.76157763772262</v>
+        <v>26.75632741293451</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>25.70636836157268</v>
+        <v>31.73755283339075</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>8.495533944521503</v>
+        <v>6.27879509567968</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>19.60349858980868</v>
+        <v>20.48596956296459</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>23.9160288175999</v>
+        <v>26.23643175177004</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>7.545687337038157</v>
+        <v>6.789098183754572</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>20.3444218327979</v>
+        <v>22.00893755261545</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>25.62669900669187</v>
+        <v>28.37327960927065</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>0.8093009334719845</v>
+        <v>2.351593477402542</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>16.13009953272516</v>
+        <v>19.86848747424623</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>21.43858383132441</v>
+        <v>29.95939400161459</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>5.118874395932909</v>
+        <v>2.905589137600469</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>21.75281831530353</v>
+        <v>33.37968892640977</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>26.53483279598118</v>
+        <v>43.45141480072827</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>22.345369880575</v>
+        <v>35.31242401517859</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>28.64853266129181</v>
+        <v>43.23768218993108</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>30.63838220216282</v>
+        <v>49.61473876003733</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>12.99241880981458</v>
+        <v>10.1128237382493</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>24.57799983058893</v>
+        <v>39.32398281994899</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>28.84882249202425</v>
+        <v>47.00555142135609</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>14.70465846264261</v>
+        <v>15.97752502919839</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>27.36209570804597</v>
+        <v>33.50024154547681</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>32.92598312359323</v>
+        <v>40.96907981686725</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>8.590028720618557</v>
+        <v>8.29535140849266</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>23.94240429660777</v>
+        <v>33.42305345923866</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.39793967793437</v>
+        <v>42.80351546567049</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>13.0539781627878</v>
+        <v>10.50005926138563</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>29.56608157098541</v>
+        <v>51.05140108434576</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>34.65334069711387</v>
+        <v>61.40256726538279</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>30.74449759036028</v>
+        <v>62.79437644410807</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>37.00846051379155</v>
+        <v>68.93727402855616</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>38.99824450580674</v>
+        <v>79.54530355291583</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>21.36362733092793</v>
+        <v>24.76637706198447</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>32.80575451732341</v>
+        <v>61.90299309729981</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>37.20557972668778</v>
+        <v>71.56315732502578</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>8.535161240979921</v>
+        <v>-5.487180197158668</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>21.03935827789869</v>
+        <v>2.80385468406153</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>26.42759709097673</v>
+        <v>5.846071657688992</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>1.833757446885837</v>
+        <v>-21.33230850984051</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>17.08139199362496</v>
+        <v>7.714924527793652</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>22.35865221924301</v>
+        <v>9.532204625063439</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>6.388531677411448</v>
+        <v>-21.04619927823554</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>22.83469902361888</v>
+        <v>22.29619207140815</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>27.68314865273159</v>
+        <v>20.95827752863338</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>23.30034221709872</v>
+        <v>18.90148998276025</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.44018455487166</v>
+        <v>22.81192497222802</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>31.37200646733287</v>
+        <v>22.53056479848594</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>13.93255251850764</v>
+        <v>-6.278256646367755</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>25.19528147433297</v>
+        <v>17.13729663633272</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.5443485834315</v>
+        <v>19.64234832230515</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>13.22057777127713</v>
+        <v>19.41845449847279</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>26.28436916112926</v>
+        <v>37.2625372563635</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>31.57771733506642</v>
+        <v>40.5208110522603</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>6.342362281659769</v>
+        <v>4.208367155837731</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>21.97069947782085</v>
+        <v>33.67430915862754</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>27.27759111563186</v>
+        <v>40.93845054625491</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>10.79764197411129</v>
+        <v>5.127199008621471</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>27.74462157018946</v>
+        <v>52.0726747093298</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>32.53914685633345</v>
+        <v>59.36318950017126</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>28.30094575638824</v>
+        <v>53.33476392969213</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>34.69719515538789</v>
+        <v>62.47419828359769</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>36.67429282564873</v>
+        <v>63.60794378210731</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>18.80019780145885</v>
+        <v>21.49470227059002</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>30.53685305709847</v>
+        <v>61.60618582073919</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>34.84266303276966</v>
+        <v>64.59308232398443</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>20.24214398761198</v>
+        <v>24.84799042170827</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>33.15915199955772</v>
+        <v>45.75094511844672</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>38.73989565032103</v>
+        <v>50.37206124144545</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>13.99259234550022</v>
+        <v>7.101000839600669</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.64604623280124</v>
+        <v>45.21628903774526</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>35.10420001926278</v>
+        <v>50.9103604964704</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>18.59630428401943</v>
+        <v>8.746077112800617</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>35.41618985549356</v>
+        <v>66.96499541759881</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>40.52294553948784</v>
+        <v>74.52852143267283</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>36.56440514868711</v>
+        <v>77.89807767468081</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>42.92269009038856</v>
+        <v>85.64807733439666</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>44.89746157605379</v>
+        <v>89.17231552712981</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>27.03395505944624</v>
+        <v>30.19397615344361</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>38.62524704658699</v>
+        <v>80.27979792072274</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>43.06254346260221</v>
+        <v>83.41070078202232</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>4.024191855195738</v>
+        <v>9.213148380601336</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>16.28027074213584</v>
+        <v>11.27063609239719</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>21.63840490244304</v>
+        <v>15.52510163770593</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-2.551106695107972</v>
+        <v>-3.462601765702249</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>12.41162500897334</v>
+        <v>14.83300357988515</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>17.67009815407062</v>
+        <v>17.75083249931783</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>1.917843354123438</v>
+        <v>-0.5160209182822264</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>18.0903178022061</v>
+        <v>26.13550332471656</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>22.90592344635137</v>
+        <v>28.25037254559878</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>18.60419188741854</v>
+        <v>26.15668821621712</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>24.67186239217878</v>
+        <v>29.63662458583464</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>26.5963050172783</v>
+        <v>30.12183486115184</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>9.382921968426132</v>
+        <v>11.74722783970817</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>20.49205269742837</v>
+        <v>24.8207666260176</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>24.8024714697173</v>
+        <v>27.18036467956206</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>7.940767636311602</v>
+        <v>2.64244610018498</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>20.76060336907208</v>
+        <v>12.31717773866525</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>26.02901044163294</v>
+        <v>17.75632782776652</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>1.184650836815397</v>
+        <v>-6.036825431173771</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>16.53236198282615</v>
+        <v>9.271704994269083</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>21.82474409889399</v>
+        <v>18.49229767991487</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>5.543268603823083</v>
+        <v>-5.759690610491862</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>22.21995021511206</v>
+        <v>21.38900944109433</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>26.98756266194187</v>
+        <v>33.10192816003213</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>22.82557827630271</v>
+        <v>24.55192357444123</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.15069283148201</v>
+        <v>30.75330582239014</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>31.12056626403298</v>
+        <v>34.05867916614791</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>13.47291755870977</v>
+        <v>4.088772814550293</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>25.05927274954148</v>
+        <v>30.40662136721395</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.32759272863436</v>
+        <v>33.66186261366205</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>15.42124508189282</v>
+        <v>18.15609134759667</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>28.09892941679595</v>
+        <v>31.05982995371225</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>33.65068216982267</v>
+        <v>36.78587543235325</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>9.283355015982147</v>
+        <v>3.707817814555636</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>24.66287824558592</v>
+        <v>27.48874189760032</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>30.10251805438214</v>
+        <v>34.92935968524218</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>13.80365716775847</v>
+        <v>7.586227067010167</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>30.36015253046543</v>
+        <v>46.87144898925844</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>35.43379653692968</v>
+        <v>57.75407282662572</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>31.55408850488061</v>
+        <v>58.00401669823027</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>37.8385549404268</v>
+        <v>63.73648089621558</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>39.80558234571842</v>
+        <v>67.60470842610796</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>22.16597131039347</v>
+        <v>23.18396379446569</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>33.60899058931535</v>
+        <v>58.47760898910276</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>38.00779940857002</v>
+        <v>62.02552138839856</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>0.2285119518907415</v>
+        <v>1.328519746378003</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>12.34142156422188</v>
+        <v>-0.002458391680239203</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>17.64691960110045</v>
+        <v>-0.9171208670556332</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-6.402842361188878</v>
+        <v>-5.832528136174819</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>8.376041323918084</v>
+        <v>5.725803470613908</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>13.58215692668527</v>
+        <v>5.262584092681532</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-2.014236463837555</v>
+        <v>-7.566908088679373</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>13.97945845394769</v>
+        <v>10.39268833509966</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>18.74596972033789</v>
+        <v>7.308473821326981</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>14.49248106821558</v>
+        <v>9.782976712463277</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>20.50015459669526</v>
+        <v>7.540016443639399</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>22.40729681006749</v>
+        <v>8.143997733273846</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>5.367106414152182</v>
+        <v>0.418697204880953</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>16.35772637672186</v>
+        <v>7.212028254503405</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>20.63764890692372</v>
+        <v>8.522610213408068</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>4.357619458901755</v>
+        <v>-2.496858839677106</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>17.03106633327729</v>
+        <v>2.940348857697597</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>22.24711994387358</v>
+        <v>2.279793392172461</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-2.446097564111028</v>
+        <v>-6.24510074803435</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>12.71537941745875</v>
+        <v>2.787758133572918</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>17.95428786785529</v>
+        <v>7.429512204714751</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>1.831918531914717</v>
+        <v>-10.20924701509033</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>18.32824074851023</v>
+        <v>8.579641347850224</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>23.04604245530167</v>
+        <v>13.00277477197802</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>18.93146075176669</v>
+        <v>10.26953904987685</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>25.19385216651667</v>
+        <v>11.46654493806765</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>27.14635182973276</v>
+        <v>13.26836772262582</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>9.674031858882463</v>
+        <v>-4.009225132668593</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>21.13765453793578</v>
+        <v>15.06581805633258</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.37563067248072</v>
+        <v>16.11968862878429</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>11.90356107081377</v>
+        <v>14.54257973124298</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>24.43526810289218</v>
+        <v>23.02392399891231</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.9316825372815</v>
+        <v>23.47546594233794</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>5.705611994335456</v>
+        <v>3.952491987448109</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>20.90117876279091</v>
+        <v>21.48808079103192</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>26.28676771900648</v>
+        <v>25.37472141252571</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>10.15376670107142</v>
+        <v>3.506292391799644</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>26.53070809192517</v>
+        <v>33.88297004750537</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>31.55246522187171</v>
+        <v>38.52741198400683</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>27.71896121158033</v>
+        <v>44.39507017047883</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>33.94239979058246</v>
+        <v>44.61631661101747</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>35.89131990699944</v>
+        <v>48.42044328292586</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>18.4267027795451</v>
+        <v>16.33817038818922</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.74678731512567</v>
+        <v>43.78311409534298</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>34.11567815682849</v>
+        <v>46.00103536430096</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>10.53347667266134</v>
+        <v>21.79400870534478</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>22.99288520571035</v>
+        <v>28.52170527127195</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.50589446019661</v>
+        <v>34.23859940048949</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>3.795805884258414</v>
+        <v>5.49748946078169</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>19.05280427153736</v>
+        <v>29.77891952341629</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>24.46829709382703</v>
+        <v>31.23391015525389</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>8.394550384822846</v>
+        <v>10.0234152449993</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>24.87617931428606</v>
+        <v>46.60406162576446</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.83299978486211</v>
+        <v>46.94489534621327</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>25.49130771105599</v>
+        <v>46.92431387063134</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>31.675204557816</v>
+        <v>49.07599829073892</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>33.70734474739727</v>
+        <v>50.44083017810472</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>16.13748154616825</v>
+        <v>29.82509611398886</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>27.42512873627573</v>
+        <v>50.67363866269314</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>31.88548988291782</v>
+        <v>54.20600911528528</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>14.76496610847063</v>
+        <v>12.11019282462273</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>27.79735712368692</v>
+        <v>27.15876845440702</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>33.21659333637957</v>
+        <v>32.88126747069747</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>7.850617190131318</v>
+        <v>-2.192960372401263</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>23.49849127199831</v>
+        <v>19.05879768787367</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>28.94457066148011</v>
+        <v>25.22902516452036</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>12.33717232378354</v>
+        <v>-0.02851368068248306</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.329319451122</v>
+        <v>37.0260296497825</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>34.23399707776831</v>
+        <v>45.53228024832497</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>30.04577101093039</v>
+        <v>39.81787880307589</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>36.49222501218248</v>
+        <v>46.68032295820286</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>38.56999438495428</v>
+        <v>49.97026143480657</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>20.55484676084669</v>
+        <v>16.44337196728152</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>32.33211148120937</v>
+        <v>51.44736889466684</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>36.74315640634489</v>
+        <v>54.07682386438164</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>21.88284988378151</v>
+        <v>25.33634571674828</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>34.77740168465884</v>
+        <v>42.38002121126367</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>40.48439249299534</v>
+        <v>49.99273435811996</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>15.60303940590092</v>
+        <v>7.512777014178265</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>31.28477705841781</v>
+        <v>36.13604345423222</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>36.88357241841636</v>
+        <v>42.78437120248991</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>20.22891213608507</v>
+        <v>11.8584919375552</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>37.10463477964307</v>
+        <v>59.03402502841037</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>42.32333508533139</v>
+        <v>68.95906675958518</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>38.40651284245597</v>
+        <v>72.51189960973399</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>44.8130050136198</v>
+        <v>78.34458100057073</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>46.88873116011163</v>
+        <v>83.07463993635015</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.88613478706938</v>
+        <v>31.85196911031904</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>40.51533962858635</v>
+        <v>74.17982358473235</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>45.06442879371887</v>
+        <v>79.43228799398834</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>10.86794665356097</v>
+        <v>21.09399636109098</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>23.29540355298434</v>
+        <v>38.33974203619674</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.66728679217374</v>
+        <v>42.38693417795376</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>4.336196770411586</v>
+        <v>7.754580387569955</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>19.48352648908534</v>
+        <v>45.11674673524512</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>24.75525291969815</v>
+        <v>46.87806105058111</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>8.874961729004916</v>
+        <v>11.85460126832335</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>25.21483517400329</v>
+        <v>64.58579874980676</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>30.04494302953362</v>
+        <v>65.22988629301075</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>25.68742410951137</v>
+        <v>63.29711418536608</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>31.79788332263129</v>
+        <v>68.12112272809965</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>33.72973342384723</v>
+        <v>69.89892820888629</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>16.34432000099107</v>
+        <v>25.6482048684614</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>27.58207719052061</v>
+        <v>61.75476745017637</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>31.90022356038665</v>
+        <v>70.04455933087597</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>14.75774672180227</v>
+        <v>12.35833154366757</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>27.73892782999434</v>
+        <v>35.22204351190301</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>33.01922214983062</v>
+        <v>39.43762478545044</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>8.041329756094001</v>
+        <v>0.5792929803083773</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>23.56250262482763</v>
+        <v>32.94298359278606</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.86613908106008</v>
+        <v>40.25286124316698</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>12.47146047683666</v>
+        <v>1.682188589614452</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.30650004676048</v>
+        <v>52.18151247442647</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>34.08488485364878</v>
+        <v>61.49928084217426</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.86363304141004</v>
+        <v>52.79798839576783</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>36.22970473917454</v>
+        <v>63.0939899627294</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>38.207360533418</v>
+        <v>65.17678117662301</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>20.39467992651499</v>
+        <v>13.7393579367921</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>32.10087051417686</v>
+        <v>60.93205949694182</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>36.37550236087796</v>
+        <v>68.66341668302648</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>21.75614079958122</v>
+        <v>17.18916477834442</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>34.59084868529483</v>
+        <v>42.4577983308351</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>40.15536632436964</v>
+        <v>48.19111831214003</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>15.6689435202961</v>
+        <v>3.371649232649428</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>31.21678642113702</v>
+        <v>43.13886767227091</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>36.66884923342771</v>
+        <v>49.69412272118383</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>20.2471428066142</v>
+        <v>5.144766696890922</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>36.95555101114503</v>
+        <v>65.82026788452619</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>42.04351080300927</v>
+        <v>76.11487155619587</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>38.10461782950608</v>
+        <v>76.41564548506598</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>44.43067627370482</v>
+        <v>85.532358941076</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>46.4053863162215</v>
+        <v>91.78912361607094</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>28.60302295778015</v>
+        <v>22.3814006693146</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>40.16575066486392</v>
+        <v>77.83973755751622</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>44.5705037658644</v>
+        <v>87.56359243297355</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>14.28759434600557</v>
+        <v>19.94429830456856</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>26.86163263607005</v>
+        <v>32.13544858872247</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>32.35714050804022</v>
+        <v>36.93964648123635</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>7.622735127114812</v>
+        <v>6.227260207632849</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>23.02756916004435</v>
+        <v>44.0730440717813</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>28.42594829638698</v>
+        <v>46.03586392580199</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>12.25327134231966</v>
+        <v>10.56854885941059</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>28.84387276006458</v>
+        <v>63.40718238427174</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>33.79240159978891</v>
+        <v>62.41304448905861</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.46255845425089</v>
+        <v>57.41243654950942</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>35.67217805321958</v>
+        <v>60.94493457024352</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>37.70401063444427</v>
+        <v>62.22046966285198</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>20.05189497303794</v>
+        <v>28.80452123958606</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>31.39614201991607</v>
+        <v>58.59447150037185</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>35.85937446126599</v>
+        <v>65.52363488347821</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>18.60336823097282</v>
+        <v>16.56599282727877</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>31.74319900641408</v>
+        <v>37.85618775927891</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>37.1432677805596</v>
+        <v>41.79940846465077</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>11.75525910578912</v>
+        <v>2.282305220661254</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>27.54259599377966</v>
+        <v>36.6747760835954</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>32.96983982627061</v>
+        <v>43.23576202067689</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>16.27763769184252</v>
+        <v>4.109945846993536</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>33.3699551920688</v>
+        <v>57.39023697321035</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>38.26463018117691</v>
+        <v>64.80138346153156</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>34.08618875067783</v>
+        <v>57.83982082742627</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>40.55695557892932</v>
+        <v>66.85083086995478</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>42.63590060803502</v>
+        <v>70.15226417540613</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>24.54229557170471</v>
+        <v>21.49393357343957</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>36.3703908837117</v>
+        <v>68.09868381281173</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>40.78152832944242</v>
+        <v>73.15616671040929</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>25.47015712848638</v>
+        <v>21.21209533001165</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>38.46713914904175</v>
+        <v>43.65950630051084</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>44.15451789079206</v>
+        <v>49.5050832010359</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>19.26463936200517</v>
+        <v>5.69392714838612</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>35.07809374821642</v>
+        <v>46.00477742967225</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>40.65896033545603</v>
+        <v>53.28558641898566</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>23.91678009195102</v>
+        <v>8.43333422289076</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>40.88742728909429</v>
+        <v>70.55977035352988</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>46.09702675337485</v>
+        <v>79.32908988628897</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>42.18990767026682</v>
+        <v>81.61631101239796</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>48.62075721868959</v>
+        <v>89.52758858540697</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>50.69667704675977</v>
+        <v>94.29488805796497</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>32.61928222048012</v>
+        <v>28.92224859923455</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>44.29782135947194</v>
+        <v>83.46556690636628</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>48.84679976808553</v>
+        <v>90.06372643714606</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>3.187356911167846</v>
+        <v>26.68453063330066</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>16.39733543996719</v>
+        <v>33.83522012506178</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>22.14745624850862</v>
+        <v>37.27375702255439</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-4.101132269051341</v>
+        <v>25.98149271258408</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>12.09399755684385</v>
+        <v>59.31729476304251</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>17.7525438625461</v>
+        <v>58.93866389667643</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>0.7622069538130738</v>
+        <v>17.07393396829873</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>18.19627772664823</v>
+        <v>64.03880309377796</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>23.38096475042337</v>
+        <v>61.7321142994568</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>18.88561952750073</v>
+        <v>58.51974593103385</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>25.41296136937298</v>
+        <v>63.43555112909978</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>27.55524280688071</v>
+        <v>64.95144515801623</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>9.079397388527473</v>
+        <v>39.0041545219707</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>21.00921366050772</v>
+        <v>59.07467938624093</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>25.67562074191665</v>
+        <v>66.18962455812429</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>7.778837004282577</v>
+        <v>22.73148383992902</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>21.58138659171853</v>
+        <v>38.68182643144418</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>27.23284531691663</v>
+        <v>43.35897374196189</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>0.3047960144449391</v>
+        <v>25.11990823635265</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>16.90173963018212</v>
+        <v>53.99607322493993</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>22.59162687280796</v>
+        <v>60.02016011943685</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>5.053946277609835</v>
+        <v>10.36447876618147</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>23.01330024666076</v>
+        <v>58.00555830189641</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.14254667046092</v>
+        <v>65.85968024290993</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>23.80571024199743</v>
+        <v>56.92401187853996</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>30.60713441085676</v>
+        <v>67.66335168704062</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>32.79971660460674</v>
+        <v>71.94269951367686</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>13.85895252025882</v>
+        <v>29.53195223651344</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>26.29651542013482</v>
+        <v>66.76445306768447</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>30.9109398787288</v>
+        <v>73.82703614927449</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>15.48154722974055</v>
+        <v>28.58719262286301</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.13585843666038</v>
+        <v>45.95403791843707</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>35.08860339583205</v>
+        <v>51.50314970296994</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>8.689840679038582</v>
+        <v>29.3989832505393</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>25.31686164950603</v>
+        <v>64.21990476605158</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>31.16656532871816</v>
+        <v>69.96056102702842</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>13.58239391641272</v>
+        <v>15.88447022033692</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>31.41531250723579</v>
+        <v>72.58417055591589</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>36.87485256598818</v>
+        <v>81.24605820006862</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>32.82662975720167</v>
+        <v>82.54417642262602</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>39.5870770562468</v>
+        <v>91.57403806380852</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>41.77507567130741</v>
+        <v>97.82631686151943</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>22.84678256573077</v>
+        <v>39.09136691152649</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>35.12846003089474</v>
+        <v>84.00518086861196</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>39.8858968415516</v>
+        <v>91.68597045630956</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>9.993456925905996</v>
+        <v>17.1608941021782</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>22.5757229669995</v>
+        <v>33.07237279306501</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.06693803753163</v>
+        <v>39.90816462237804</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>3.410239253769969</v>
+        <v>4.638352165927966</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>18.74128185868696</v>
+        <v>37.76960430485336</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>24.14785724749939</v>
+        <v>41.7139748163098</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>7.991197509258367</v>
+        <v>8.589746749734314</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>24.54505262124147</v>
+        <v>59.65515298326277</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.49238715041105</v>
+        <v>62.1581341848872</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>25.06751771393668</v>
+        <v>61.37214638185922</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>31.26001116099525</v>
+        <v>64.78205094051002</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>33.24653263742862</v>
+        <v>65.58321004497468</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>15.61839894370284</v>
+        <v>18.98478981842477</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>27.00104209009104</v>
+        <v>55.57841483873439</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>31.41982002548065</v>
+        <v>63.47135984868326</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>14.10010551971611</v>
+        <v>10.09417922106216</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>27.24311799434669</v>
+        <v>34.06661211486691</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>32.63888207747585</v>
+        <v>38.99352237850202</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>7.337077474715542</v>
+        <v>-0.2241594346556219</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>23.04726001777727</v>
+        <v>30.3378576202857</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.48354106246179</v>
+        <v>37.67511129617024</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>11.80798681918787</v>
+        <v>0.910515408156936</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>28.86061678669962</v>
+        <v>51.22637131605576</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>33.75419765378093</v>
+        <v>60.32115416554508</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.47237215181855</v>
+        <v>53.91077633787076</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>35.92254107171334</v>
+        <v>62.69595942775611</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>37.95650093368963</v>
+        <v>64.27452337921464</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>19.89562293254016</v>
+        <v>10.45296148883768</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>31.75141964440022</v>
+        <v>58.49805543531487</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>36.12504862983073</v>
+        <v>65.56761165822066</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>21.07665241287588</v>
+        <v>14.80823686772994</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>34.07353013554921</v>
+        <v>40.72005777374143</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>39.75366174038408</v>
+        <v>47.95849113874878</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>14.95284307469781</v>
+        <v>3.677318277511556</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>30.68886535822514</v>
+        <v>40.6973159532855</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>36.27465377324624</v>
+        <v>48.46602796933352</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>19.56362185238766</v>
+        <v>4.853673362470698</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>36.49031849347141</v>
+        <v>64.58247526952603</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>41.69336923379549</v>
+        <v>75.27862180351021</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>37.70043530526642</v>
+        <v>78.78045852558311</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>44.11246303016244</v>
+        <v>86.47634942341104</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>46.14211014330603</v>
+        <v>91.16093330736838</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>28.09371729383043</v>
+        <v>20.0261845653104</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>39.80468401890987</v>
+        <v>76.5020607958029</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>44.30851710961124</v>
+        <v>86.25809775948493</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>7.764367037449952</v>
+        <v>10.07561441481128</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>19.79973754219161</v>
+        <v>15.33262140353311</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>25.16368566704678</v>
+        <v>18.8077552843611</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>1.267039328912329</v>
+        <v>-2.973815851171612</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>16.00969922621213</v>
+        <v>21.09808104582838</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>21.27689738775623</v>
+        <v>22.51169546034209</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>5.690131561002666</v>
+        <v>1.377838014803512</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>21.61217828128409</v>
+        <v>32.13184349699115</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>26.44457577068749</v>
+        <v>34.58209987845522</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>22.19542509167207</v>
+        <v>33.51469671967656</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.17020383737542</v>
+        <v>35.45452263002291</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>30.15105326242806</v>
+        <v>39.12449829223068</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>13.13980280201764</v>
+        <v>13.33499195755031</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>24.03909657186271</v>
+        <v>31.86723827936707</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.37315661038355</v>
+        <v>34.55134025504096</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>12.0203022855502</v>
+        <v>12.73413709563372</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>24.62059155617674</v>
+        <v>29.36195393760032</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.89862056310653</v>
+        <v>35.13620513278123</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>5.350385742132314</v>
+        <v>4.66768301140517</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>20.48248728444455</v>
+        <v>29.54909273719725</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>25.78510821396457</v>
+        <v>38.04244215080153</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>9.665088098242402</v>
+        <v>5.759273482384469</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>26.09122574213976</v>
+        <v>41.82311192472024</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>30.87785969513562</v>
+        <v>54.90198132959209</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>26.76845555311512</v>
+        <v>46.58044425015389</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>32.99964516608659</v>
+        <v>53.85923591999641</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>35.02759110788287</v>
+        <v>61.49810298115612</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>17.57611229355725</v>
+        <v>15.78045653729715</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.95915614846722</v>
+        <v>53.7383184612825</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>33.24804975456007</v>
+        <v>58.78467772987979</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>18.8423519351379</v>
+        <v>20.87700532361707</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>31.30962923370721</v>
+        <v>38.87602557647541</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>36.86184938981857</v>
+        <v>45.96904874698036</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>12.7912768188586</v>
+        <v>8.734419113480879</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>27.95576356238833</v>
+        <v>40.75564437954033</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>33.40289391715052</v>
+        <v>48.97643718974668</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>17.24076259808231</v>
+        <v>11.88034672221898</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>33.5548513125748</v>
+        <v>56.52782653265849</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>38.64020231370453</v>
+        <v>70.32939323650227</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>34.79684537473001</v>
+        <v>70.653964498311</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>40.99045395027093</v>
+        <v>76.18838420484154</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>43.01519612713497</v>
+        <v>85.84979146975523</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>25.57997122622055</v>
+        <v>25.95458005436747</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>36.81646205490514</v>
+        <v>70.92472070207863</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>41.23824168581517</v>
+        <v>77.56803067736605</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>2.61044165883564</v>
+        <v>12.13386912993816</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>15.79236046403382</v>
+        <v>16.25615834981182</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>21.54064902382599</v>
+        <v>21.27331649814006</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-4.675747016048103</v>
+        <v>0.8938344054444194</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>11.48645827515658</v>
+        <v>26.61995291608794</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>17.14381481346506</v>
+        <v>30.66216224337795</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>0.1763902667970925</v>
+        <v>1.940148568049988</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>17.57884096263738</v>
+        <v>38.93434659502914</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>22.76089237991677</v>
+        <v>40.57460755490673</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>18.2738787895803</v>
+        <v>39.09472800908968</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>24.79372689020888</v>
+        <v>43.36420245715125</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>26.93704502814498</v>
+        <v>47.49382532800614</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>8.483565787715165</v>
+        <v>17.59297244221106</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>20.39884186144009</v>
+        <v>37.18844912270346</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>25.06078865250672</v>
+        <v>45.57592971592466</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>7.167684833085211</v>
+        <v>10.74004054304582</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>20.94338363703021</v>
+        <v>24.15890053977138</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>26.59384397788835</v>
+        <v>31.61516108815415</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-0.303910120514665</v>
+        <v>2.799243128059754</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>16.26155405784988</v>
+        <v>25.13261504333049</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>21.95095991235109</v>
+        <v>36.85996174365145</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>4.433580445049842</v>
+        <v>-1.026175412015863</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>22.36259723767198</v>
+        <v>37.29715066062779</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>27.490029929018</v>
+        <v>50.380867142653</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>23.16006079664938</v>
+        <v>41.31856681913759</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.95422086502361</v>
+        <v>51.61813781947443</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>32.14788601803932</v>
+        <v>59.07198520057797</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>13.22880995838651</v>
+        <v>11.53912963023741</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>25.6525730871403</v>
+        <v>48.65108963076615</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>30.26297277603248</v>
+        <v>58.1385508091722</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>14.89919057851475</v>
+        <v>14.28964730283358</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.52728919959726</v>
+        <v>28.94073823138536</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>34.47862718745029</v>
+        <v>37.33760787397988</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>8.109289973943003</v>
+        <v>3.771538398056304</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>24.70565301179659</v>
+        <v>31.73136291623429</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>30.55457029846082</v>
+        <v>43.33756346167412</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>12.99071654265593</v>
+        <v>1.143113645168096</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>30.79396906356886</v>
+        <v>48.26246027012583</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>36.25110873152055</v>
+        <v>62.25987372743192</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>32.20992391715755</v>
+        <v>63.26104837467041</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>38.96288258686664</v>
+        <v>71.44215018819297</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>41.15208606696503</v>
+        <v>80.90841743030568</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>22.24553801840475</v>
+        <v>17.68630175463637</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>34.51352922692494</v>
+        <v>61.80112521418029</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>39.2666851785375</v>
+        <v>72.24544145988078</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>15.15693300274812</v>
+        <v>22.35843899337386</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>27.43138742986243</v>
+        <v>32.17939063840528</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>32.78494792379755</v>
+        <v>37.85453984089825</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>8.868805975310416</v>
+        <v>7.333140316937328</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>23.92244304330081</v>
+        <v>48.27188917415303</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>29.16755189881678</v>
+        <v>47.05436827259403</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>13.36647324923855</v>
+        <v>13.03160646765455</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>29.57676831658501</v>
+        <v>67.56989740475215</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>34.39504170246948</v>
+        <v>65.80142914772988</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>30.17058411771175</v>
+        <v>58.76385167006627</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>36.24575793519067</v>
+        <v>64.16930714193803</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>38.19543541683653</v>
+        <v>63.68546395983704</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>20.9463364307968</v>
+        <v>38.59415830499184</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>32.01725637883087</v>
+        <v>59.85874110462679</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>36.3827721354582</v>
+        <v>67.95505553015307</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>19.29641641219196</v>
+        <v>19.98283832525483</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>32.1316057220341</v>
+        <v>37.58539190218674</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>37.38869961740041</v>
+        <v>41.9221874205159</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>12.82329424877864</v>
+        <v>4.011830132413376</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>28.25715119549151</v>
+        <v>39.72295497407224</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>33.52967612122711</v>
+        <v>42.86298446807903</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>17.21481712836275</v>
+        <v>6.865213393220369</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>33.92442488830264</v>
+        <v>60.87561558075426</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>38.68719886532897</v>
+        <v>66.87714941057733</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>34.61231216150074</v>
+        <v>57.16795625762693</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>40.94426272674866</v>
+        <v>65.0363435821091</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>42.93806354180118</v>
+        <v>66.83451364508481</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>25.25390593190609</v>
+        <v>28.57286546742464</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>36.80322075140391</v>
+        <v>66.56987013410806</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>41.11765582363998</v>
+        <v>70.49986756431714</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>25.84462539051539</v>
+        <v>23.25975580304695</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>38.53531865605361</v>
+        <v>42.3162407035958</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>44.07519098020589</v>
+        <v>48.27551051219727</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>20.0022551421867</v>
+        <v>5.23481787309272</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>35.45982655602042</v>
+        <v>46.77530420909532</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>40.88150781107397</v>
+        <v>50.64765899459921</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>24.52763023126571</v>
+        <v>9.271620737254306</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>41.11345357051243</v>
+        <v>72.33365267866152</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>46.18519323282165</v>
+        <v>80.02700399794797</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>42.38108288207583</v>
+        <v>79.48543647405747</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>48.6735491976267</v>
+        <v>87.12769256402571</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>50.66577622040262</v>
+        <v>89.8059205070028</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>32.99842378015042</v>
+        <v>35.41875788161376</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>44.40125745773484</v>
+        <v>80.0654618590634</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>48.84752985416196</v>
+        <v>86.67401647077973</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>10.68003066571564</v>
+        <v>17.12695979837097</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>23.23474272555612</v>
+        <v>33.02182155206556</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>28.72393929319388</v>
+        <v>37.80775930321103</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>4.163752408478707</v>
+        <v>5.129914579019196</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>19.47601486357892</v>
+        <v>39.84058019111045</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>24.87530837641663</v>
+        <v>42.04721298710946</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>8.723911315175451</v>
+        <v>8.223030444242379</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>25.24310693711834</v>
+        <v>57.91616185649978</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>30.197648484321</v>
+        <v>59.91569920506647</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>25.79735430292759</v>
+        <v>60.29114734359122</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>31.99546129163589</v>
+        <v>65.55898218879788</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>33.97275062250633</v>
+        <v>66.31009574233373</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>16.36768071784481</v>
+        <v>19.06282358242354</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>27.73390472073403</v>
+        <v>55.45877754893483</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>32.14707081403517</v>
+        <v>60.67920479559218</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>14.83172732922904</v>
+        <v>10.9922008362471</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>27.94719012864375</v>
+        <v>35.00970493450306</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>33.34132783192923</v>
+        <v>38.76530749774314</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>8.136174097325318</v>
+        <v>1.142959671531866</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>23.82727961879866</v>
+        <v>32.65741416036899</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>29.2568190478839</v>
+        <v>39.114488447856</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>12.58838527629651</v>
+        <v>1.876426068880033</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>29.60654922534096</v>
+        <v>51.33355926539527</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>34.50751089377744</v>
+        <v>61.13297833792855</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>30.24965443382856</v>
+        <v>55.40732812234101</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>36.70558847268334</v>
+        <v>64.97264458088746</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>38.72995350306383</v>
+        <v>66.98927143945291</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>20.69175553291311</v>
+        <v>12.10587782036891</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>32.53207167303519</v>
+        <v>61.49430812770971</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>36.89907340139976</v>
+        <v>66.64403428732662</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>21.69389703935587</v>
+        <v>14.1836518412925</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>34.66296727678214</v>
+        <v>40.12317692653941</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>40.34143862115032</v>
+        <v>46.08745237057572</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>15.63253923916013</v>
+        <v>2.57379426707406</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>31.34814975652364</v>
+        <v>40.31810684900996</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>36.92781454032707</v>
+        <v>47.41830023248055</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>20.22115497514459</v>
+        <v>3.338237083950371</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>37.11266807260121</v>
+        <v>61.84086009258716</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>42.32308287097828</v>
+        <v>72.81639487304055</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>38.3523048052484</v>
+        <v>76.27635802928815</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>44.76941708375872</v>
+        <v>84.39560888256931</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>46.79083498869958</v>
+        <v>89.75692077805282</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>28.76635122875076</v>
+        <v>17.88474051976881</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>40.46023607450575</v>
+        <v>74.49036130577259</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>44.95901572598895</v>
+        <v>82.3420097511938</v>
       </c>
     </row>
   </sheetData>
